--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.662215666666666</v>
+        <v>4.031031</v>
       </c>
       <c r="H2">
-        <v>19.986647</v>
+        <v>12.093093</v>
       </c>
       <c r="I2">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="J2">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>59.76039431635199</v>
+        <v>0.445638539112</v>
       </c>
       <c r="R2">
-        <v>537.8435488471679</v>
+        <v>4.010746852008</v>
       </c>
       <c r="S2">
-        <v>0.2418056822232745</v>
+        <v>0.004283771102269286</v>
       </c>
       <c r="T2">
-        <v>0.2418056822232744</v>
+        <v>0.004283771102269286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.662215666666666</v>
+        <v>4.031031</v>
       </c>
       <c r="H3">
-        <v>19.986647</v>
+        <v>12.093093</v>
       </c>
       <c r="I3">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="J3">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>60.04035838457376</v>
+        <v>36.32793623152399</v>
       </c>
       <c r="R3">
-        <v>540.3632254611639</v>
+        <v>326.951426083716</v>
       </c>
       <c r="S3">
-        <v>0.2429384877090617</v>
+        <v>0.3492080459283899</v>
       </c>
       <c r="T3">
-        <v>0.2429384877090617</v>
+        <v>0.3492080459283899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.662215666666666</v>
+        <v>4.031031</v>
       </c>
       <c r="H4">
-        <v>19.986647</v>
+        <v>12.093093</v>
       </c>
       <c r="I4">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="J4">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>2.883124906736777</v>
+        <v>2.794790381888999</v>
       </c>
       <c r="R4">
-        <v>25.948124160631</v>
+        <v>25.153113437001</v>
       </c>
       <c r="S4">
-        <v>0.0116658531621777</v>
+        <v>0.02686536559134379</v>
       </c>
       <c r="T4">
-        <v>0.0116658531621777</v>
+        <v>0.0268653655913438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>15.295603</v>
       </c>
       <c r="I5">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="J5">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>45.734097699648</v>
+        <v>0.5636531676186667</v>
       </c>
       <c r="R5">
-        <v>411.606879296832</v>
+        <v>5.072878508568</v>
       </c>
       <c r="S5">
-        <v>0.1850517357129169</v>
+        <v>0.005418205427113096</v>
       </c>
       <c r="T5">
-        <v>0.1850517357129169</v>
+        <v>0.005418205427113097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>15.295603</v>
       </c>
       <c r="I6">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="J6">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>45.94835170842622</v>
@@ -818,10 +818,10 @@
         <v>413.535165375836</v>
       </c>
       <c r="S6">
-        <v>0.1859186616653702</v>
+        <v>0.4416858147809183</v>
       </c>
       <c r="T6">
-        <v>0.1859186616653702</v>
+        <v>0.4416858147809183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>15.295603</v>
       </c>
       <c r="I7">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="J7">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>2.206429821513222</v>
+        <v>3.534910725452333</v>
       </c>
       <c r="R7">
-        <v>19.857868393619</v>
+        <v>31.814196529071</v>
       </c>
       <c r="S7">
-        <v>0.008927773559265079</v>
+        <v>0.03397988972176555</v>
       </c>
       <c r="T7">
-        <v>0.008927773559265079</v>
+        <v>0.03397988972176556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.660042</v>
+        <v>1.468449333333333</v>
       </c>
       <c r="H8">
-        <v>4.980126</v>
+        <v>4.405348</v>
       </c>
       <c r="I8">
-        <v>0.1236918059679339</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="J8">
-        <v>0.123691805967934</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>14.890656422016</v>
+        <v>0.1623400106986667</v>
       </c>
       <c r="R8">
-        <v>134.015907798144</v>
+        <v>1.461060096288</v>
       </c>
       <c r="S8">
-        <v>0.06025136507328454</v>
+        <v>0.00156051908786609</v>
       </c>
       <c r="T8">
-        <v>0.06025136507328454</v>
+        <v>0.00156051908786609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.660042</v>
+        <v>1.468449333333333</v>
       </c>
       <c r="H9">
-        <v>4.980126</v>
+        <v>4.405348</v>
       </c>
       <c r="I9">
-        <v>0.1236918059679339</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="J9">
-        <v>0.123691805967934</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>14.96041581363467</v>
+        <v>13.23376916241955</v>
       </c>
       <c r="R9">
-        <v>134.643742322712</v>
+        <v>119.103922461776</v>
       </c>
       <c r="S9">
-        <v>0.06053362922958407</v>
+        <v>0.1272117039631251</v>
       </c>
       <c r="T9">
-        <v>0.06053362922958407</v>
+        <v>0.1272117039631251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.660042</v>
+        <v>1.468449333333333</v>
       </c>
       <c r="H10">
-        <v>4.980126</v>
+        <v>4.405348</v>
       </c>
       <c r="I10">
-        <v>0.1236918059679339</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="J10">
-        <v>0.123691805967934</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>0.7183959024886667</v>
+        <v>1.018103823337333</v>
       </c>
       <c r="R10">
-        <v>6.465563122398001</v>
+        <v>9.162934410036</v>
       </c>
       <c r="S10">
-        <v>0.00290681166506535</v>
+        <v>0.009786684397208818</v>
       </c>
       <c r="T10">
-        <v>0.00290681166506535</v>
+        <v>0.00978668439720882</v>
       </c>
     </row>
   </sheetData>
